--- a/data/tracker.xlsx
+++ b/data/tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="application_tracker" sheetId="1" state="visible" r:id="rId1"/>
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,119 +645,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Samsung SDS America</t>
+          <t>College Board</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logistics Data Analyst</t>
+          <t>Data Scientist, Data Science Team</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EM6934</t>
+          <t>REQ002166</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Talent Acquisition Team</t>
+          <t>College Board</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>johndoe@gmail.com</t>
+          <t>collegeboard@myworkday.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>Sat, 23 Aug 2025 07:36:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>johndoe@gmail.com</t>
+          <t>SMU HR &lt;hr-smu@invalidemail.com&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>Sat, 23 Aug 2025 07:56:23 -0400 (EDT)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Southern Methodist University</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Applied Scientist, Sponsored Products, Amazon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3034855</t>
-        </is>
-      </c>
+          <t>Data engineer I/Data Engineer II</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>SMU Department of Human Resources Talent Acquisition and Management Team</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>SMU HR &lt;hr-smu@invalidemail.com&gt;</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fri, 15 Aug 2025 17:33:04 +0000</t>
+          <t>Sat, 23 Aug 2025 07:56:23 -0400 (EDT)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amentum</t>
+          <t>Anuvu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Engineer III</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -768,62 +768,66 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amentum Recruiting</t>
+          <t>The Talent Acquisition Team</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>"Amentum-Workday@amentum.com (DO NOT REPLY)" &lt;pae@myworkday.com&gt;</t>
+          <t>donotreply@invalidemail.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fri, 15 Aug 2025 16:38:42 +0000</t>
+          <t>Sat, 23 Aug 2025 11:44:01 +0000 (GMT)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Remitly</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Analytics Engineer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Celeste Guido</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Remitly &lt;remitly@myworkday.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 07:08:53 +0000</t>
+          <t>Sat, 23 Aug 2025 11:40:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EZ Texting</t>
+          <t>J.D. Power</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Analyst, Data Science</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -834,29 +838,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EZ Texting Recruiting Team</t>
+          <t>J.D. Power Talent Acquisition Team</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EZ TEXTING &lt;no-reply@ats.rippling.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:22:00 +0000 (UTC)</t>
+          <t>Sat, 23 Aug 2025 11:40:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Human Interest</t>
+          <t>Insperity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Science &amp; Analytics Engineer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -867,69 +871,65 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>People &amp; Talent @ Human Interest</t>
+          <t>Insperity Recruiter</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>myWorkday@insperity.com</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:18:31 +0000</t>
+          <t>Sat, 23 Aug 2025 04:35:38 -0700 (PDT)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Socure</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Data Scientist (Computer Vision, Document Verification)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No Reply</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No Reply &lt;no-reply@socure.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:29:42 +0000</t>
+          <t>Sat, 23 Aug 2025 11:29:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Data Engineer, North America Sort Centers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3030057</t>
-        </is>
-      </c>
+          <t>Mozilla</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>applied</t>
@@ -937,36 +937,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>Mozilla Recruiting Team</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:31:19 +0000</t>
+          <t>Sat, 23 Aug 2025 11:29:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Nova Talent</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Data Engineer, North America Sort Centers</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3030057</t>
-        </is>
-      </c>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>applied</t>
@@ -974,99 +970,103 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>The Nova Talent Team</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>Nova Talent &lt;no-reply@hire.lever.co&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:37:59 +0000</t>
+          <t>Sat, 23 Aug 2025 11:20:57 +0000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Data Scientist, Ops Comp Engineering, Analytics 'N Science</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3060371</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>The Recruiting team at Meta &lt;do-not-reply@recruiting.facebook.com&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:39:14 +0000</t>
+          <t>Sat, 23 Aug 2025 04:09:54 -0700</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Health-E Commerce</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Health-E Commerce Team</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>The Recruiting team at Meta &lt;do-not-reply@recruiting.facebook.com&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:15:04 +0000</t>
+          <t>Sat, 23 Aug 2025 04:09:54 -0700</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Unite Us</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Engineer, Product Analytics</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1077,34 +1077,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The Unite Us Recruiting Team</t>
+          <t>The Meta Recruiting team</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>The Recruiting team at Meta &lt;do-not-reply@recruiting.facebook.com&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:10:05 +0000</t>
+          <t>Sat, 23 Aug 2025 04:09:54 -0700</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sumitomo Mitsui Banking Corporation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data Scientist, Ops Comp Engineering, Analytics 'N Science</t>
+          <t>Software Engineer - Data (Remote)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3060371</t>
+          <t>5248</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1114,203 +1114,219 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>Sumitomo Mitsui Banking Corporation Recruiting Team</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>SMBC Human Resources &lt;system@successfactors.com&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 13:42:09 +0000</t>
+          <t>Sat, 23 Aug 2025 11:03:08 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Linesight</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Linesight Talent Acquisition</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>"Linesight @ icims" &lt;linesight+autoreply@talent.icims.eu&gt;</t>
+          <t>collegeboard@myworkday.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 09:48:20 -0400 (EDT)</t>
+          <t>Sat, 23 Aug 2025 07:36:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Quantum Analytics</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>collegeboard@myworkday.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 10:24:44 -0400</t>
+          <t>Sat, 23 Aug 2025 07:36:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Samsung SDS America</t>
+          <t>College Board</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Logistics Data Analyst</t>
+          <t>Data Scientist, Data Science Team</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EM6934</t>
+          <t>REQ002166</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Talent Acquisition Team</t>
+          <t>College Board</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>collegeboard@myworkday.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 10:25:02 -0400</t>
+          <t>Sat, 23 Aug 2025 07:36:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
+          <t>Southern Methodist University</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Data engineer I/Data Engineer II</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>SMU Department of Human Resources Talent Acquisition and Management Team</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>SMU HR &lt;hr-smu@invalidemail.com&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 10:34:22 -0400</t>
+          <t>Sat, 23 Aug 2025 07:56:23 -0400 (EDT)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
+          <t>Anuvu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>The Talent Acquisition Team</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>donotreply@invalidemail.com</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 10:37:35 -0400</t>
+          <t>Sat, 23 Aug 2025 11:44:01 +0000 (GMT)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Samsung SDS America</t>
+          <t>J.D. Power</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Logistics Data Analyst</t>
+          <t>Analyst, Data Science</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EM6934</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1320,34 +1336,34 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Talent Acquisition Team</t>
+          <t>J.D. Power Talent Acquisition Team</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 10:40:32 -0400</t>
+          <t>Sat, 23 Aug 2025 11:40:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Insperity</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Science &amp; Analytics Engineer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>309197</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1357,32 +1373,36 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Recruiting at Deloitte</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Recruiting at Deloitte &lt;donotreply@deloitte.com&gt;</t>
+          <t>myWorkday@insperity.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 16:40:15 +0000</t>
+          <t>Sat, 23 Aug 2025 04:35:38 -0700 (PDT)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ulta Beauty</t>
+          <t>Mozilla</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sr Data Scientist</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1390,32 +1410,36 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ulta Beauty Talent Acquisition</t>
+          <t>The Mozilla Recruiting Team</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>"Ulta Beauty @ icims" &lt;ulta+autoreply@talent.icims.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 12:45:35 -0400 (EDT)</t>
+          <t>Sat, 23 Aug 2025 11:29:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ulta Beauty</t>
+          <t>Nova Talent</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sr Data Scientist</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1423,24 +1447,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The Ulta Beauty Talent Acquisition Team</t>
+          <t>The Nova Talent Team</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>"Ulta Beauty @ icims" &lt;ulta+autoreply@talent.icims.com&gt;</t>
+          <t>Nova Talent &lt;no-reply@hire.lever.co&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 12:46:44 -0400 (EDT)</t>
+          <t>Sat, 23 Aug 2025 11:20:57 +0000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ulta Beauty</t>
+          <t>Asurion</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1448,7 +1472,11 @@
           <t>Sr Data Scientist</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1456,32 +1484,36 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ulta Beauty Talent Acquisition Team</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>"Ulta Beauty @ icims" &lt;ulta+autoreply@talent.icims.com&gt;</t>
+          <t>"Workday_HRIS@NoReply.com" &lt;asurion@myworkday.com&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sat, 16 Aug 2025 12:46:44 -0400 (EDT)</t>
+          <t>Sat, 23 Aug 2025 11:15:19 +0000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Data Engineer, Product Analytics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1489,222 +1521,258 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Laura Delli Ficorelli</t>
+          <t>The Meta Recruiting team</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;donotreply@successfactors.com&gt;</t>
+          <t>The Recruiting team at Meta &lt;do-not-reply@recruiting.facebook.com&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sun, 17 Aug 2025 09:24:54 +0000 (UTC)</t>
+          <t>Sat, 23 Aug 2025 04:09:54 -0700</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ExxonMobil</t>
+          <t>Sumitomo Mitsui Banking Corporation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GenAI Data Scientist</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Software Engineer - Data (Remote)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5248</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ExxonMobil CareerConnect</t>
+          <t>Sumitomo Mitsui Banking Corporation Recruiting Team</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ExxonMobil CareerConnect &lt;donotreply@successfactors.com&gt;</t>
+          <t>SMBC Human Resources &lt;system@successfactors.com&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sun, 17 Aug 2025 16:00:46 +0000 (UTC)</t>
+          <t>Sat, 23 Aug 2025 11:03:08 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>College Board</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>data scientist, Staffing- Data &amp; Analytics (Seattle)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>REQ002166</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Starbucks Careers</t>
+          <t>College Board Business Process</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Starbucks Careers &lt;hiring@jobs.starbucks.com&gt;</t>
+          <t>collegeboard@myworkday.com</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:48:01 +0000</t>
+          <t>Sat, 23 Aug 2025 07:36:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Whatnot</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Data Scientist, Growth Marketing</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Whatnot Hiring Team</t>
+          <t>Saideep, Hiring team</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Whatnot Hiring Team &lt;no-reply@ashbyhq.com&gt;</t>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:09:01 +0000</t>
+          <t>Tue, 26 Aug 2025 12:46:30 -0400</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Statsig</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Customer Data Scientist</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Statsig Talent Team</t>
+          <t>Saideep, Hiring team</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Statsig Talent Team &lt;no-reply@ashbyhq.com&gt;</t>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:18:00 +0000</t>
+          <t>Tue, 26 Aug 2025 12:46:30 -0400</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RA Capital Management, LLC</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RA Capital Management, LLC</t>
+          <t>Saideep</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:14:06 +0000</t>
+          <t>Tue, 26 Aug 2025 12:51:01 -0400</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BioMed Realty</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BioMed Realty</t>
+          <t>Saideep</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>no-reply@biomedrealtycareers.com</t>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:27:03 +0000</t>
+          <t>Tue, 26 Aug 2025 12:51:01 -0400</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Statsig</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Customer Data Scientist</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Applied Scientist, Account Integrity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3065373</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1712,61 +1780,73 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Statsig Talent Team</t>
+          <t>Amazon Recruiting Team</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Statsig Talent Team &lt;no-reply@ashbyhq.com&gt;</t>
+          <t>noreply@mail.amazon.jobs</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:22:40 +0000</t>
+          <t>Tue, 26 Aug 2025 23:52:49 +0000</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Starbucks</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>TRM Labs</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Blockchain Research</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>application incomplete</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Starbucks Careers</t>
+          <t>TRM Labs Recruiting</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Starbucks Careers &lt;hiring@jobs.starbucks.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:39:42 +0000</t>
+          <t>Tue, 26 Aug 2025 23:47:11 +0000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EZ Texting</t>
+          <t>General Motors Insurance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Sr Data Scientist</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1774,302 +1854,330 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EZ Texting Recruiting Team</t>
+          <t>GM Financial United States Recruiting Team</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EZ TEXTING &lt;no-reply@ats.rippling.com&gt;</t>
+          <t>exvu.fa.sender@oracle.gmfinancial.com</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:34:54 +0000 (UTC)</t>
+          <t>Tue, 26 Aug 2025 23:44:17 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Capella Space</t>
+          <t>General Motors Insurance</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Data Analytics Engineer</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Sr Data Scientist</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>application incomplete</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Capella Talent Team</t>
+          <t>GM Financial United States Recruiting Team</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>exvu.fa.sender@oracle.gmfinancial.com</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 10:31:07 +0000</t>
+          <t>Tue, 26 Aug 2025 23:43:38 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Unite Us</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Applied Scientist, SB Response Prediction and Auction Science Team</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2994843</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The Unite Us Recruiting Team</t>
+          <t>Amazon Recruiting Team</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
+          <t>noreply@mail.amazon.jobs</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 15:02:14 +0000</t>
+          <t>Tue, 26 Aug 2025 23:32:44 +0000</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PlayOn</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Scientist II, Rider Pricing &amp; Incentives</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Uber Recruiting Team</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PlayOn &lt;no-reply@hire.lever.co&gt;</t>
+          <t>noreply@uber.com</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 15:56:17 +0000</t>
+          <t>Tue, 26 Aug 2025 23:31:07 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EZ Texting</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Applied Scientist, SB Response Prediction and Auction Science Team</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2994843</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EZ Texting Recruiting Team</t>
+          <t>Amazon Recruiting Team</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EZ TEXTING &lt;no-reply@ats.rippling.com&gt;</t>
+          <t>noreply@mail.amazon.jobs</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 16:08:03 +0000 (UTC)</t>
+          <t>Tue, 26 Aug 2025 23:25:53 +0000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Human Interest</t>
+          <t>The Lifetime Value Co.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>People &amp; Talent @ Human Interest</t>
+          <t>The Hiring Team at LTV</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>no-reply@humaninterest.com</t>
+          <t>"The Lifetime Value Co." &lt;noreply@applytojob.com&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 17:15:18 +0000</t>
+          <t>Tue, 26 Aug 2025 23:24:03 +0000</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hidani Tech</t>
+          <t>Jupiter Power</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Data_Scientist</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Senior Software Engineer - Data Science</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Career Hidanitech</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Career Hidanitech &lt;career@hidanitech.com&gt;</t>
+          <t>Jupiter Power &lt;notifications@app.bamboohr.com&gt;</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 17:19:42 +0000</t>
+          <t>Tue, 26 Aug 2025 23:18:40 +0000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Appriss Retail</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Software Development Engineer - 2025 (US)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2828235</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Amazon Recruiting Team</t>
+          <t>Appriss Retail</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>noreply@mail.amazon.jobs</t>
+          <t>Appriss Retail &lt;no-reply@ats.rippling.com&gt;</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 21:34:32 +0000</t>
+          <t>Tue, 26 Aug 2025 23:13:59 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fred Hutchinson Cancer Center</t>
+          <t>SoFi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Data Scientist II</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>29843</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Talent Acquisition Team</t>
+          <t>The SoFi Technologies Recruiting Team</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Alfreda Lewis &lt;fhcrc+email+s0jo-36eca6e149@talent.icims.com&gt;</t>
+          <t>no-reply@us.greenhouse-mail.io</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 14:02:48 -0400 (EDT)</t>
+          <t>Tue, 26 Aug 2025 23:58:06 +0000</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>USI Insurance Services LLC</t>
+          <t>Chewy.com</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist II</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30519</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2079,100 +2187,108 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>USI Talent Acquisition</t>
+          <t>Chewy Recruiting</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>USI Talent Acquisition &lt;Recruiting@usi.com&gt;</t>
+          <t>no-reply@chewy.com</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mon, 18 Aug 2025 21:44:21 +0000</t>
+          <t>Tue, 26 Aug 2025 21:07:02 +0000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>TeamWork Online</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>TeamWork Online &lt;services@teamworkonline.com&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 00:01:26 -0400</t>
+          <t>Wed, 27 Aug 2025 00:00:26 +0000 (UTC)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Applied Scientist, Account Integrity</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3065373</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ananya Kapoor</t>
+          <t>Amazon Recruiting Team</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+          <t>noreply@mail.amazon.jobs</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 00:11:33 -0400</t>
+          <t>Wed, 27 Aug 2025 00:03:15 +0000</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, AI</t>
+          <t>Data Governance Analyst</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R022351</t>
+          <t>JR2001616</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2182,178 +2298,182 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Talent Acquisition Ensemble Health Partners</t>
+          <t>The NVIDIA Recruiting Team</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ensemblehp@myworkday.com</t>
+          <t>NVIDIA HR &lt;nvidia@myworkday.com&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:50:55 +0000</t>
+          <t>Wed, 27 Aug 2025 00:14:15 +0000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Data Scientist - Retail Media Analytics</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>REQ330408</t>
+          <t>R0618052</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T-Mobile Talent Acquisition Team</t>
+          <t>CVS Health Talent Acquisition</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@myworkday.com&gt;</t>
+          <t>Colleague Zone &lt;cvshealth@myworkday.com&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:45:34 +0000</t>
+          <t>Wed, 27 Aug 2025 04:39:48 +0000</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Senior-Data-Scientist</t>
+          <t>Senior Data Scientist - Retail Media Analytics</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>REQ330408-2</t>
+          <t>R0618052</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CVS Health Talent Acquisition</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@otp.workday.com&gt;</t>
+          <t>Colleague Zone &lt;cvshealth@myworkday.com&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:26:56 +0000</t>
+          <t>Wed, 27 Aug 2025 04:39:48 +0000</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Data-Scientist</t>
+          <t>Program Manager, Amazon Grocery Logistics Delivery</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R022351</t>
+          <t>3063642</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>application incomplete</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>Amazon Recruiting Team</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ensemblehp@otp.workday.com</t>
+          <t>noreply@mail.amazon.jobs</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:26:36 +0000</t>
+          <t>Wed, 27 Aug 2025 11:12:15 +0000</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>['CALERO', '', 'applied', 'Calero Talent Acquisition Team']</t>
+          <t>CarGurus</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Senior Software Engineer, Data Governance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>CarGurus Talent Acquisition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CALERO.hr@adp.com</t>
+          <t>no-reply@cargurus.com</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:23:26 +0000</t>
+          <t>Wed, 27 Aug 2025 14:18:35 +0000</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>PA Consulting</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, AI</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>R022351</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2363,34 +2483,34 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Talent Acquisition Ensemble Health Partners</t>
+          <t>Talent Acquisition Team at PA Consulting</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ensemblehp@myworkday.com</t>
+          <t>"Talenthub by Starred.com" &lt;no-reply@talenthub-surveys.io&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:50:55 +0000</t>
+          <t>Wed, 27 Aug 2025 19:31:52 +0000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>PA Consulting</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>REQ330408</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2400,110 +2520,106 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>T-Mobile Talent Acquisition Team</t>
+          <t>Talent Acquisition Team at PA Consulting</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@myworkday.com&gt;</t>
+          <t>"Talenthub by Starred.com" &lt;no-reply@talenthub-surveys.io&gt;</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:45:34 +0000</t>
+          <t>Wed, 27 Aug 2025 19:31:51 +0000</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>Kensho</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Machine Learning Engineer - 2025 Grad</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Kensho Recruiting team</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@otp.workday.com&gt;</t>
+          <t>"Workday at S&amp;P Global" &lt;spgi@myworkday.com&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:26:56 +0000</t>
+          <t>Thu, 28 Aug 2025 04:53:53 +0000</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>Independence Pet Holdings</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, AI</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>R022351</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Talent Acquisition Ensemble Health Partners</t>
+          <t>IPH Talent Acquisition</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ensemblehp@myworkday.com</t>
+          <t>independencepetgroup@myworkday.com</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:50:55 +0000</t>
+          <t>Thu, 28 Aug 2025 07:58:53 +0000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>Signifyd</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>REQ330408</t>
-        </is>
-      </c>
+          <t>Data Scientist I</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>applied</t>
@@ -2511,1588 +2627,54 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T-Mobile Talent Acquisition Team</t>
+          <t>The Signifyd Recruiting Team</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@myworkday.com&gt;</t>
+          <t>no-reply@signifyd.com</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:45:34 +0000</t>
+          <t>Fri, 29 Aug 2025 00:03:03 +0000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ensemble Health Partners</t>
+          <t>BCD Travels</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, AI</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R022351</t>
+          <t>4942</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Talent Acquisition Ensemble Health Partners</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ensemblehp@myworkday.com</t>
+          <t>&lt;donotreply@successfactors.com&gt;</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Tue, 19 Aug 2025 09:50:55 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>REQ330408</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>T-Mobile Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:45:34 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>REQ330408-2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>application incomplete</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@otp.workday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:26:56 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Ensemble Health Partners</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>R022351</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>application incomplete</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Ensemble Health Partners</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ensemblehp@otp.workday.com</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:26:36 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Calero</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Calero Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>CALERO.hr@adp.com</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:23:26 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Adswerve, Inc</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>The Adswerve, Inc Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>no-reply@adswerve.com</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:05:04 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Blue Cross Blue Shield of Massachusetts</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Team Blue Cross Blue Shield of Massachusetts</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>"workday.notifications" &lt;bcbsma@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:49:42 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>XPO</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Senior Scientist, Data Science - Hybrid</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>XPO Recruiting</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Recruiter &lt;system@successfactors.com&gt;</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:43:10 +0000 (UTC)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Data Engineer, Selling Partner Insights and Analytics</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>3047999</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Amazon Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>noreply@mail.amazon.jobs</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:34:44 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Data Engineer, Selling Partner Insights and Analytics</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>3047999</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Amazon Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>noreply@mail.amazon.jobs</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:19:17 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Talent_GenRe@genre.com</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:57:21 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Ensemble Health Partners</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist, AI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>R022351</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Ensemble Health Partners</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>ensemblehp@myworkday.com</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:50:55 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>REQ330408</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>T-Mobile Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:45:34 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>REQ330408-2</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>application incomplete</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>MyWorkday T-Mobile &lt;tmobile@otp.workday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:26:56 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>EnsembleHealthPartnersCareers</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Data-Scientist</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>R022351</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>application incomplete</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ensemblehp@otp.workday.com</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:26:36 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Calero</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Calero Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>CALERO.hr@adp.com</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:23:26 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Adswerve, Inc</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>The Adswerve, Inc Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>no-reply@adswerve.com</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 09:05:04 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Blue Cross Blue Shield of Massachusetts</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Team Blue Cross Blue Shield of Massachusetts</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>"workday.notifications" &lt;bcbsma@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:49:42 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>XPO</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Senior Scientist, Data Science - Hybrid</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>XPO Recruiting</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Recruiter &lt;system@successfactors.com&gt;</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:43:10 +0000 (UTC)</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Data Engineer, Selling Partner Insights and Analytics</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>3047999</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Amazon Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>noreply@mail.amazon.jobs</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:34:44 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Data Engineer, Selling Partner Insights and Analytics</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>3047999</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Amazon Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>noreply@mail.amazon.jobs</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 08:19:17 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Life North America unit</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Data Analyst - Life and Health</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>846136</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Talent_GenRe@genre.com</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:57:21 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>DigitalOcean</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist - Finance</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Sammy</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>talent@digitalocean.com</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:50:05 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CarGurus</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer, Data Governance</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CarGurus Talent Acquisition</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>no-reply@cargurus.com</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:45:04 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Senior Data Analyst</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Dutchie Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:40:08 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Sayari</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Junior Data Engineer (Remote US or Canada)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>The Sayari Team</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sayari &lt;no-reply@hire.lever.co&gt;</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:39:29 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Gradient AI</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>unattended mailbox</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>no-reply@us.greenhouse-mail.io</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 07:37:05 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Hidani Tech</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Career Hidanitech</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Career Hidanitech &lt;career@hidanitech.com&gt;</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 15:07:40 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>REQ330408</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>T-Mobile</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>T-Mobile Candidate Experience Surveys &lt;NOREPLY_T-Mobile@qemailserver.com&gt;</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 10:01:13 -0600 (MDT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Socure</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Data Scientist, Computer Vision</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Socure Talent Team</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>No Reply &lt;no-reply@socure.com&gt;</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 23:25:03 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Duranta</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>The Duranta Team</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Ganesh Nunnagoppula &lt;ganesh@getduranta.com&gt;</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 17:08:33 -0700</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Samsung SDS America</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Logistics Data Analyst</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>EM6934</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>johndoe@gmail.com</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Quantum Analytics Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Ananya Kapoor</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>johndoe@gmail.com</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Duranta</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Ganesh Nunnagoppula</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Ganesh Nunnagoppula &lt;ganesh@getduranta.com&gt;</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 17:08:33 -0700</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Socure</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Data Scientist, Computer Vision</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Socure Talent Team</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>No Reply &lt;no-reply@socure.com&gt;</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Tue, 19 Aug 2025 23:25:03 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Samsung SDS America</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Logistics Data Analyst</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>EM6934</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>johndoe@gmail.com</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Quantum Analytics</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Ananya Kapoor</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>johndoe@gmail.com</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Houzz</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>The Houzz Team</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Houzz &lt;no-reply@hire.lever.co&gt;</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 11:23:57 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Talent Acquisition Group</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>&lt;tcs.recruitment@tcs.com&gt;</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 16:52:10 +0530</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>DataRobot</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Senior Execution Data Scientist</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>DataRobot Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>datarobot@myworkday.com</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 11:13:18 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Exact Sciences</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Sr Engineer I, Data</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>The Exact Sciences Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Exact Sciences &lt;exactsciences@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 11:02:53 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>LEGO Group</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Data Specialist</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>The LEGO® Careers team</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>lego@myworkday.com</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 10:58:38 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Starbucks Coffee Company</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>senior data scientist, Staffing - Data &amp; Analytics (Seattle)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Starbucks Coffee Company Recruiting Team</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Starbucks Careers &lt;hiring@jobs.starbucks.com&gt;</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 10:38:28 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Manulife/John Hancock</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Associate Data Scientist - Fraud Analytics</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>546836638daf9001478ff45585b10000</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Manulife/John Hancock Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>"noreply@manulife.com" &lt;manulife@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 10:29:07 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Turn/River Capital</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>application incomplete</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Greenhouse</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Greenhouse &lt;no-reply@us.greenhouse-mail.io&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 10:16:54 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>eBay</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>eBay Talent Acquisition Team</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>"workday.do-not-reply ebay" &lt;ebay@myworkday.com&gt;</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 07:38:53 +0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Block</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Data Scientist, Risk ML</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Block Talent Team</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>no-reply@block.xyz</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Wed, 20 Aug 2025 13:48:17 +0000</t>
+          <t>Fri, 29 Aug 2025 00:10:36 +0000 (UTC)</t>
         </is>
       </c>
     </row>
@@ -4107,19 +2689,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="33.1640625" customWidth="1" min="3" max="3"/>
-    <col width="72.6640625" customWidth="1" min="4" max="4"/>
-    <col width="33.5" customWidth="1" min="5" max="5"/>
-    <col width="34.6640625" customWidth="1" min="6" max="6"/>
+    <col width="27.1640625" customWidth="1" min="1" max="1"/>
+    <col width="24.5" customWidth="1" min="2" max="2"/>
+    <col width="21.6640625" customWidth="1" min="3" max="3"/>
+    <col width="24.5" customWidth="1" min="4" max="4"/>
+    <col width="21.33203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4195,6 +2777,1331 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wed, 20 Aug 2025 23:09:45 -0400</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>hangout after school</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wed, 20 Aug 2025 23:57:44 -0400</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 00:00:07 -0400</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>after class today at the PARK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hangout</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ananya Kapoor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 00:03:35 -0400</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 01:57:10 -0400</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 02:39:52 -0400</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 11:09:45 -0400</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 21:57:52 -0400</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 21:41:22 -0400</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 22:02:26 -0400</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 22:04:45 -0400</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 22:36:55 -0400</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;arikonthamsaideep@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 23:34:54 -0400</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Interview for Data Scientist role</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 23:41:59 -0400</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Thu, 21 Aug 2025 23:50:51 -0400</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 11:59:43 -0400</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 11:59:43 -0400</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>arikonthamsaideep@gmail.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 09:35:15 -0700</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11 AM on august 12th</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Data Scientist Role Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 12:49:22 -0400</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tuesday, August 12th or Thursday, August 14th, between 10:00 AM and 2:00 PM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Data Scientist interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 20:46:27 -0400</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12:30 tomorrow</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lunch in the cafeteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 20:59:53 -0400</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15th at noon PST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Job interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 20:59:53 -0400</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15th at noon PST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 21:05:22 -0400</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15th at noon PST</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Interview confirmation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fri, 22 Aug 2025 22:10:46 -0400</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15th at noon PST</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Job interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Saidee</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:14:31 -0400</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>tomorrow at 7pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Saidee</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:14:31 -0400</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tomorrow at 7pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:29:04 -0400</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thursday at 5pm</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:29:04 -0400</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thursday at 5pm</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:46:30 -0400</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Data Engineer interview next round</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:46:30 -0400</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Data Engineer interview next round</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:51:01 -0400</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thursday at 12pm</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 12:51:01 -0400</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thursday at 12pm</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 15:42:51 -0400</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>tomorrow at 11pm</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>discuss client visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 15:42:51 -0400</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>tomorrow at 11pm</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>discuss client visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 15:58:44 -0400</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>tomorrow at 12pm</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>discuss client meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 16:14:34 -0400</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>tomorrow at 10pm</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>discuss client meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 16:14:34 -0400</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tomorrow at 10pm</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>discuss client meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>tomorrow at 10pm</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;arikonthamsaideep@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['', 'less gooooo', '', '']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 21:23:41 -0400</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 20:05:47 -0400</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tue, 26 Aug 2025 21:30:03 -0400</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>tomorrow at the plaza at 10pm</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wed, 27 Aug 2025 00:46:20 -0400</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>tomorrow at 12pm</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>party for wedding</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Wed, 27 Aug 2025 01:11:42 -0400</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>tomorrow at 12pm</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>party at the plaza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wed, 27 Aug 2025 03:02:50 -0400</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>tomorrow at 12pm</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>party for upcoming marriage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wed, 27 Aug 2025 11:51:24 -0400</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>tomorrow at 10pm</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>something important</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wed, 27 Aug 2025 14:19:54 -0400</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>tomorrow at 10pm</t>
         </is>
       </c>
     </row>

--- a/data/tracker.xlsx
+++ b/data/tracker.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2675,6 +2675,80 @@
       <c r="G57" t="inlineStr">
         <is>
           <t>Fri, 29 Aug 2025 00:10:36 +0000 (UTC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veriff</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Senior Data Curator</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Team Veriff</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vivian Rebrin &lt;vivian.rebrin@veriff.net&gt;</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 11:52:36 +0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Calero</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Recruitment Team at Calero</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CALERO.hr@adp.com</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 12:30:22 +0000</t>
         </is>
       </c>
     </row>

--- a/data/tracker.xlsx
+++ b/data/tracker.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,6 @@
           <t>Data engineer I/Data Engineer II</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>applied</t>
@@ -760,7 +759,6 @@
           <t>Data Engineer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>applied</t>
@@ -830,7 +828,6 @@
           <t>Analyst, Data Science</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>applied</t>
@@ -863,7 +860,6 @@
           <t>Data Science &amp; Analytics Engineer</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>applied</t>
@@ -928,8 +924,6 @@
           <t>Mozilla</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>applied</t>
@@ -962,7 +956,6 @@
           <t>Senior Data Engineer</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>applied</t>
@@ -1069,7 +1062,6 @@
           <t>Data Engineer, Product Analytics</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>applied</t>
@@ -2619,7 +2611,6 @@
           <t>Data Scientist I</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>applied</t>
@@ -2749,6 +2740,80 @@
       <c r="G59" t="inlineStr">
         <is>
           <t>Fri, 29 Aug 2025 12:30:22 +0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>saideepreddy99@gmail.com</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 08:25:51 -0700</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Goldbelly</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Goldbelly Talent</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>no-reply@us.greenhouse-mail.io</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 16:05:22 +0000</t>
         </is>
       </c>
     </row>
@@ -2763,43 +2828,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col width="27.1640625" customWidth="1" min="1" max="1"/>
-    <col width="24.5" customWidth="1" min="2" max="2"/>
-    <col width="21.6640625" customWidth="1" min="3" max="3"/>
-    <col width="24.5" customWidth="1" min="4" max="4"/>
-    <col width="21.33203125" customWidth="1" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>sender_email</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>request_sent_by</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>mail_sent_date</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>requested_date_time</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>reason_for_meeting</t>
         </is>
@@ -2821,6 +2879,7 @@
           <t>2025-07-13</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>connect over a teams call</t>
@@ -2870,6 +2929,7 @@
           <t>Wed, 20 Aug 2025 23:09:45 -0400</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>hangout after school</t>
@@ -2892,6 +2952,7 @@
           <t>Wed, 20 Aug 2025 23:57:44 -0400</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>catch up</t>
@@ -3513,6 +3574,7 @@
           <t>tomorrow at 7pm</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3535,6 +3597,7 @@
           <t>tomorrow at 7pm</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4178,6 +4241,138 @@
           <t>tomorrow at 10pm</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>saideepreddy99@gmail.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Saideep</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 08:25:51 -0700</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>tomorrow at 3pm</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>job interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saideepreddy99@gmail.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 09:10:37 -0700</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>after 5 days at the same time and place instead of tomorrow at 2pm</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>saideepreddy99@gmail.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 09:10:37 -0700</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>after 5 days at the same time and place instead of tomorrow at 2pm</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>saideepreddy99@gmail.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 09:10:37 -0700</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>after 5 days at the same time and place instead of tomorrow at 2pm</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>catch up</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham &lt;saideepreddy99@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Saideep Arikontham</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fri, 29 Aug 2025 12:23:48 -0400</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2pm tomorrow</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
